--- a/reports/spambase/cross_under_std.xlsx
+++ b/reports/spambase/cross_under_std.xlsx
@@ -547,64 +547,64 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0156544970740894</v>
+        <v>0.01641006361276646</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01367599510861516</v>
+        <v>0.01423964339152014</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01299927144446681</v>
+        <v>0.01352564846398643</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01326585202946057</v>
+        <v>0.01255576653119753</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01410945528037254</v>
+        <v>0.01397324573672963</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01213009940967082</v>
+        <v>0.01383637783409615</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01208356341909281</v>
+        <v>0.01241982832242391</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0113025140545145</v>
+        <v>0.01421286136195187</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01183596064463459</v>
+        <v>0.01318734934382443</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01045447109233934</v>
+        <v>0.01128012529556894</v>
       </c>
       <c r="L2" t="n">
-        <v>0.008693164634919046</v>
+        <v>0.01173382748719781</v>
       </c>
       <c r="M2" t="n">
-        <v>0.009372638315185316</v>
+        <v>0.01094855242140098</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01080892139123472</v>
+        <v>0.01073328013164818</v>
       </c>
       <c r="O2" t="n">
-        <v>0.009101128008356043</v>
+        <v>0.009806892078231403</v>
       </c>
       <c r="P2" t="n">
-        <v>0.008477477529461756</v>
+        <v>0.01067985918278754</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01464833352877837</v>
+        <v>0.0145948144582754</v>
       </c>
       <c r="R2" t="n">
-        <v>0.01322244575538155</v>
+        <v>0.01208446452318284</v>
       </c>
       <c r="S2" t="n">
-        <v>0.01115076786404608</v>
+        <v>0.01225700731686363</v>
       </c>
       <c r="T2" t="n">
-        <v>0.01124146898141335</v>
+        <v>0.01180209050195234</v>
       </c>
       <c r="U2" t="n">
-        <v>0.008469276580487203</v>
+        <v>0.009641399751925466</v>
       </c>
     </row>
     <row r="3">
@@ -614,64 +614,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01916980345801171</v>
+        <v>0.0210308634733565</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01095236478074501</v>
+        <v>0.01437248043754535</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01262573837068205</v>
+        <v>0.01397300943562238</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01202981791940537</v>
+        <v>0.01265781221586553</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01844299267138444</v>
+        <v>0.01791173715206867</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01225879131227526</v>
+        <v>0.01397032398988952</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01245699572727597</v>
+        <v>0.01282339870881618</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01145218645077879</v>
+        <v>0.01453028427692843</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0148211800617824</v>
+        <v>0.01702650160409173</v>
       </c>
       <c r="K3" t="n">
-        <v>0.009675128209241445</v>
+        <v>0.01137642669564968</v>
       </c>
       <c r="L3" t="n">
-        <v>0.009151000132466329</v>
+        <v>0.01196166481731189</v>
       </c>
       <c r="M3" t="n">
-        <v>0.00954821806911706</v>
+        <v>0.0110607643361759</v>
       </c>
       <c r="N3" t="n">
-        <v>0.01379473450819611</v>
+        <v>0.01325666897424471</v>
       </c>
       <c r="O3" t="n">
-        <v>0.009100445644916804</v>
+        <v>0.009693659123945876</v>
       </c>
       <c r="P3" t="n">
-        <v>0.00848071238758279</v>
+        <v>0.0107637024393292</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01979652176020228</v>
+        <v>0.01863098596166335</v>
       </c>
       <c r="R3" t="n">
-        <v>0.01321525257881204</v>
+        <v>0.01220738524569419</v>
       </c>
       <c r="S3" t="n">
-        <v>0.01182703752518278</v>
+        <v>0.01250253498537693</v>
       </c>
       <c r="T3" t="n">
-        <v>0.0118401826089292</v>
+        <v>0.01195481928550562</v>
       </c>
       <c r="U3" t="n">
-        <v>0.008514419637169634</v>
+        <v>0.00954755640504781</v>
       </c>
     </row>
     <row r="4">
@@ -681,64 +681,64 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02758690284248835</v>
+        <v>0.02944284324507971</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01653010807484486</v>
+        <v>0.02017174313236429</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01737430905719043</v>
+        <v>0.0193018670653282</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01957794032032032</v>
+        <v>0.01802342544888062</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02037610062154741</v>
+        <v>0.02397611854452738</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01695199513524633</v>
+        <v>0.01794452628000166</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0150237836015864</v>
+        <v>0.01480167014272214</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01446319908811885</v>
+        <v>0.01638856166177802</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01843468991252757</v>
+        <v>0.02094509480413904</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01400585352527883</v>
+        <v>0.01484172851820238</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01185122602032164</v>
+        <v>0.01445692373884159</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0126547294348696</v>
+        <v>0.01387822221910589</v>
       </c>
       <c r="N4" t="n">
-        <v>0.01788799282488423</v>
+        <v>0.02188612431646431</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01238272056280334</v>
+        <v>0.01488119181861037</v>
       </c>
       <c r="P4" t="n">
-        <v>0.01256301304824009</v>
+        <v>0.01342861276434801</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.02126503761825963</v>
+        <v>0.02493791948004469</v>
       </c>
       <c r="R4" t="n">
-        <v>0.01869464024624726</v>
+        <v>0.01661323581146488</v>
       </c>
       <c r="S4" t="n">
-        <v>0.01378453133259294</v>
+        <v>0.0146354857752745</v>
       </c>
       <c r="T4" t="n">
-        <v>0.01441292592392396</v>
+        <v>0.01515263543420894</v>
       </c>
       <c r="U4" t="n">
-        <v>0.01192974727610668</v>
+        <v>0.01439083620308873</v>
       </c>
     </row>
     <row r="5">
@@ -748,64 +748,64 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02745419153535503</v>
+        <v>0.02914501577892596</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02043940820378911</v>
+        <v>0.02050109451946946</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01835055093065175</v>
+        <v>0.02289856768856558</v>
       </c>
       <c r="E5" t="n">
-        <v>0.017683504278913</v>
+        <v>0.01815805651779272</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0268597857306138</v>
+        <v>0.02436815717248783</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01970212688889323</v>
+        <v>0.02026516999183142</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01994228249220101</v>
+        <v>0.01988681775738449</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01824460092068367</v>
+        <v>0.02128988404724532</v>
       </c>
       <c r="J5" t="n">
-        <v>0.02293833976565288</v>
+        <v>0.02338382554134578</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01280482545472848</v>
+        <v>0.01727393052395159</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01335034120792969</v>
+        <v>0.0176593548117537</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01359900194961793</v>
+        <v>0.01630243084250191</v>
       </c>
       <c r="N5" t="n">
-        <v>0.01932575605880861</v>
+        <v>0.01852129959398188</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01317810386713231</v>
+        <v>0.01479157435600341</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01240872521567999</v>
+        <v>0.01575611938109601</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.02919701121375233</v>
+        <v>0.02506962903283699</v>
       </c>
       <c r="R5" t="n">
-        <v>0.017390203606016</v>
+        <v>0.01899329927661186</v>
       </c>
       <c r="S5" t="n">
-        <v>0.01989732616076201</v>
+        <v>0.01779172410436854</v>
       </c>
       <c r="T5" t="n">
-        <v>0.01976488548596459</v>
+        <v>0.01790195350960747</v>
       </c>
       <c r="U5" t="n">
-        <v>0.01300218482407122</v>
+        <v>0.01351327889997284</v>
       </c>
     </row>
   </sheetData>

--- a/reports/spambase/cross_under_std.xlsx
+++ b/reports/spambase/cross_under_std.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,102 +441,52 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>DT_NM</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>DT_BrdSMOTE</t>
+          <t>DT_RUS</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>DT_GAN</t>
+          <t>LR_NM</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>DT_SMOTE</t>
+          <t>LR_RUS</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>LR</t>
+          <t>RF_NM</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>LR_BrdSMOTE</t>
+          <t>RF_RUS</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>LR_GAN</t>
+          <t>XGB_NM</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>LR_SMOTE</t>
+          <t>XGB_RF_NM</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>XGB_RF_RUS</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>RF_BrdSMOTE</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>RF_GAN</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>RF_SMOTE</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>XGB</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>XGB_BrdSMOTE</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>XGB_GAN</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>XGB_RF</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>XGB_RF_BrdSMOTE</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>XGB_RF_GAN</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>XGB_RF_SMOTE</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>XGB_SMOTE</t>
+          <t>XGB_RUS</t>
         </is>
       </c>
     </row>
@@ -547,64 +497,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01641006361276646</v>
+        <v>0.01550531064338437</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01423964339152014</v>
+        <v>0.01250465458525529</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01352564846398643</v>
+        <v>0.01429479031376025</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01255576653119753</v>
+        <v>0.01132254530705789</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01397324573672963</v>
+        <v>0.01076344990169147</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01383637783409615</v>
+        <v>0.01052242032621333</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01241982832242391</v>
+        <v>0.0101534168021042</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01421286136195187</v>
+        <v>0.0126834527763285</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01318734934382443</v>
+        <v>0.01075186809309056</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01128012529556894</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.01173382748719781</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.01094855242140098</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.01073328013164818</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.009806892078231403</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.01067985918278754</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.0145948144582754</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.01208446452318284</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.01225700731686363</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.01180209050195234</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.009641399751925466</v>
+        <v>0.008745800813633848</v>
       </c>
     </row>
     <row r="3">
@@ -614,64 +534,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0210308634733565</v>
+        <v>0.01577271860361125</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01437248043754535</v>
+        <v>0.01267563924245178</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01397300943562238</v>
+        <v>0.0143629691585651</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01265781221586553</v>
+        <v>0.01162029006699154</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01791173715206867</v>
+        <v>0.01062986918513358</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01397032398988952</v>
+        <v>0.01071779329198388</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01282339870881618</v>
+        <v>0.009970039006345579</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01453028427692843</v>
+        <v>0.01262638641765872</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01702650160409173</v>
+        <v>0.01093998404717856</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01137642669564968</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.01196166481731189</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.0110607643361759</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.01325666897424471</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.009693659123945876</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.0107637024393292</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.01863098596166335</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.01220738524569419</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.01250253498537693</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.01195481928550562</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.00954755640504781</v>
+        <v>0.008770883123931568</v>
       </c>
     </row>
     <row r="4">
@@ -681,64 +571,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02944284324507971</v>
+        <v>0.01855586129263305</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02017174313236429</v>
+        <v>0.01803892866778466</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0193018670653282</v>
+        <v>0.01766326187122969</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01802342544888062</v>
+        <v>0.01502490373269964</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02397611854452738</v>
+        <v>0.01532031233214617</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01794452628000166</v>
+        <v>0.01260417470471975</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01480167014272214</v>
+        <v>0.01448270233016876</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01638856166177802</v>
+        <v>0.01758172270233917</v>
       </c>
       <c r="J4" t="n">
-        <v>0.02094509480413904</v>
+        <v>0.0152487488977364</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01484172851820238</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.01445692373884159</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.01387822221910589</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.02188612431646431</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.01488119181861037</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.01342861276434801</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.02493791948004469</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.01661323581146488</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.0146354857752745</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.01515263543420894</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.01439083620308873</v>
+        <v>0.01219200143869087</v>
       </c>
     </row>
     <row r="5">
@@ -748,64 +608,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02914501577892596</v>
+        <v>0.02228032610200679</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02050109451946946</v>
+        <v>0.02046254532691896</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02289856768856558</v>
+        <v>0.01965995225390444</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01815805651779272</v>
+        <v>0.01834446678041151</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02436815717248783</v>
+        <v>0.01263186341510169</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02026516999183142</v>
+        <v>0.01627876758627674</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01988681775738449</v>
+        <v>0.01135533294911272</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02128988404724532</v>
+        <v>0.01662213497081549</v>
       </c>
       <c r="J5" t="n">
-        <v>0.02338382554134578</v>
+        <v>0.01770197966756497</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01727393052395159</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.0176593548117537</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.01630243084250191</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.01852129959398188</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.01479157435600341</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.01575611938109601</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.02506962903283699</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.01899329927661186</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.01779172410436854</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.01790195350960747</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.01351327889997284</v>
+        <v>0.01389675914032559</v>
       </c>
     </row>
   </sheetData>

--- a/reports/spambase/cross_under_std.xlsx
+++ b/reports/spambase/cross_under_std.xlsx
@@ -1,38 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Arkusz1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,18 +45,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -130,7 +211,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -165,7 +245,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -341,13 +420,990 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:BD5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>DT_NM</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_10</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_2</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_3</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_4</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_5</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_6</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_7</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_8</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_9</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>LR_NM</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_1</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_10</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_2</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_3</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_4</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_5</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_6</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_7</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_8</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_9</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>RF_NM</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_1</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_10</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_2</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_3</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_4</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_5</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_6</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_7</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_8</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_9</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_NM</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RF_NM</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RF_RUS_1</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RF_RUS_10</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RF_RUS_2</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RF_RUS_3</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RF_RUS_4</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RF_RUS_5</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RF_RUS_6</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RF_RUS_7</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RF_RUS_8</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RF_RUS_9</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RUS_1</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RUS_10</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RUS_2</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RUS_3</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RUS_4</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RUS_5</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RUS_6</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RUS_7</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RUS_8</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RUS_9</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.01550394252578202</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.01278195488721804</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01262468981090834</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.01225815023143532</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.01224956412622627</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.01261127380993396</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.01184748124249974</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.01080023129143621</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.01299638312026484</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.01102583148764617</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.01208474940092326</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.01280530080848058</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.01186231715879435</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.01262468981090834</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.01225815023143532</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.01224956412622627</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.01261127380993396</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.01184748124249974</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.01080023129143621</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.01299638312026484</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.01102583148764617</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.01208474940092326</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.01087485393466047</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.01003292298364897</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.01262468981090834</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.01225815023143532</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.01224956412622627</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.01261127380993396</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.01184748124249974</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.01080023129143621</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.01299638312026484</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.01102583148764617</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.01208474940092326</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.009056466491083173</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.0123368365656531</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.01177728876908582</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.01262468981090834</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.01225815023143532</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.01224956412622627</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.01261127380993396</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.01184748124249974</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.01080023129143621</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.01299638312026484</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0.01102583148764617</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0.01208474940092326</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.009908343086419597</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.01262468981090834</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.01225815023143532</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0.01224956412622627</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.01261127380993396</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0.01184748124249974</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0.01080023129143621</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0.01299638312026484</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0.01102583148764617</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0.01208474940092326</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>f1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.01597224622314499</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.01333914225734776</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.01293448092151342</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.01260612357464898</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.01252131377079519</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.01311884202495975</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0121566685784982</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.01103746671556915</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.01327977728836607</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.01125902523118995</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.01231893772936508</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0126225264078125</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.01205521005784376</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.01293448092151342</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.01260612357464898</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.01252131377079519</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.01311884202495975</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.0121566685784982</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.01103746671556915</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.01327977728836607</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.01125902523118995</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.01231893772936508</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.01098143599795182</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.01017573077361669</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.01293448092151342</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.01260612357464898</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.01252131377079519</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.01311884202495975</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.0121566685784982</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.01103746671556915</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.01327977728836607</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.01125902523118995</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.01231893772936508</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.008963285553504254</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.01258211144923168</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.01190701933509414</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.01293448092151342</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.01260612357464898</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.01252131377079519</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.01311884202495975</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.0121566685784982</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.01103746671556915</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.01327977728836607</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.01125902523118995</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.01231893772936508</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.009932536386804204</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.01293448092151342</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0.01260612357464898</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0.01252131377079519</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0.01311884202495975</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0.0121566685784982</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0.01103746671556915</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0.01327977728836607</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0.01125902523118995</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0.01231893772936508</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.01866660316390865</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.01817278838626008</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01628065023974458</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.01584807909274713</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.01639192946533528</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.01571537855320124</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.01592268297908665</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.01567340655738627</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.01690744293312705</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.01587435630572467</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.01613498783246986</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.01788802420635468</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.01610157682550867</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.01628065023974458</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.01584807909274713</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.01639192946533528</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.01571537855320124</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.01592268297908665</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.01567340655738627</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.01690744293312705</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.01587435630572467</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.01613498783246986</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.01306765733871465</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.01322949039003222</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.01628065023974458</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.01584807909274713</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.01639192946533528</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.01571537855320124</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.01592268297908665</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.01567340655738627</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.01690744293312705</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.01587435630572467</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.01613498783246986</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.0127603290576079</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.01467772151555315</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.0160468255487107</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.01628065023974458</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.01584807909274713</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.01639192946533528</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.01571537855320124</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.01592268297908665</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.01567340655738627</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.01690744293312705</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0.01587435630572467</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.01613498783246986</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0.01388474577446915</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0.01628065023974458</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0.01584807909274713</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0.01639192946533528</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0.01571537855320124</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0.01592268297908665</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0.01567340655738627</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0.01690744293312705</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>0.01587435630572467</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0.01613498783246986</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.02343643556423991</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0230042225445662</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.02000837493523147</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.02013187101808022</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0197653752516085</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.02146731906253393</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.01913540314294671</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.01783983749288884</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0199619930321729</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.01801707809000787</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.018817030518842</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.01597640929300538</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.01849753739316056</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.02000837493523147</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.02013187101808022</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.0197653752516085</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.02146731906253393</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.01913540314294671</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.01783983749288884</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.0199619930321729</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.01801707809000787</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.018817030518842</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.01591956931712494</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.01469844491466774</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.02000837493523147</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.02013187101808022</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.0197653752516085</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.02146731906253393</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.01913540314294671</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.01783983749288884</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.0199619930321729</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.01801707809000787</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.018817030518842</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.01251228496341423</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.01795661269796891</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.01739265394323451</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.02000837493523147</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.02013187101808022</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.0197653752516085</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.02146731906253393</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.01913540314294671</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.01783983749288884</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.0199619930321729</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0.01801707809000787</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0.018817030518842</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0.01361803679595949</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0.02000837493523147</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0.02013187101808022</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0.0197653752516085</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0.02146731906253393</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0.01913540314294671</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0.01783983749288884</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0.0199619930321729</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>0.01801707809000787</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0.018817030518842</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>